--- a/Lab1/Lab1.3/Lab1_3_Requirements_Linkage_Traceability_Matrix.xlsx
+++ b/Lab1/Lab1.3/Lab1_3_Requirements_Linkage_Traceability_Matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Generate Report</t>
   </si>
   <si>
-    <t>Import</t>
+    <t>Manage configuration</t>
   </si>
   <si>
     <t>Login</t>
@@ -1263,9 +1263,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -1314,9 +1312,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
@@ -1365,9 +1361,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -1416,9 +1410,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N20" s="5"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -1467,9 +1459,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N21" s="5"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -1518,9 +1508,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N22" s="5"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -1569,9 +1557,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -1693,9 +1679,7 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ25" s="5"/>
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
@@ -1744,9 +1728,7 @@
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ26" s="5"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
@@ -1796,9 +1778,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AK27" s="5"/>
       <c r="AL27" s="8"/>
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
@@ -1819,8 +1799,10 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="I28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2024,7 +2006,9 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -2076,7 +2060,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -2128,7 +2114,9 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
